--- a/biology/Médecine/Foramen_caecum/Foramen_caecum.xlsx
+++ b/biology/Médecine/Foramen_caecum/Foramen_caecum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le foramen cæcum peut correspondre à trois unités anatomiques :
 Le foramen cæcum de l'os frontal est un trou borgne creusé à la face endocrânienne de l'os frontal. Il se situe sur la ligne médiane à la jonction de la portion horizontale et verticale de l'os juste en avant du processus crista galli de l'ethmoïde et à la pointe d'une crête osseuse longitudinale. Cette dernière correspond à l'emplacement du sinus longitudinal supérieur (collecteur veineux du cortex cérébral, se dirigeant de l'avant vers l'arrière). Ce foramen est souvent imperméable mais lorsqu'il est ouvert il transmet la veine émissaire du nez au sinus longitudinal supérieur.
